--- a/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20434,7 +20435,6 @@
           <t>创金合信汇益纯债一年定期开放债券C</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -20466,7 +20466,6 @@
           <t>创金合信汇誉纯债六个月定期开放债券C</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -20498,7 +20497,6 @@
           <t>华泰柏瑞量化增强混合C</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
           <t>89.44</t>
@@ -20530,7 +20528,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
           <t>89.44</t>
@@ -20562,7 +20559,6 @@
           <t>人保量化基本面混合C</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
           <t>85.21</t>
@@ -20578,6 +20574,8830 @@
       </c>
       <c r="H283" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H232"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>232.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.4236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.2851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>143.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.6679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>147.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.1342</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>52.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.3992</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.0388</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.4667</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7778</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9308</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2675</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2527</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>53.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2169</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1417</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0716</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9565</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7935</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7899</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7842</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7641</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7554</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7381</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7214</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6971</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6263</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6245</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>33.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5507</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5476</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5429</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5371</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4671</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4574</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4320</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3993</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3705</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3669</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3230</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>74.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>162213</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004190</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>96.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010771</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>165309</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>建信沪深300指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010772</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004191</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007275</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银河沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>502006</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>易方达国企改革指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>530018</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>建信深证100指数增强</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>004668</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>007276</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>银河沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002622</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>广发稳裕混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>21.30</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>159986</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>弘毅远方国证消费100ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004669</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>76.33</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>33.05</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>71.05</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>012873</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>易方达国企改革指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29403,4 +29404,5380 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>192.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.5144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>145.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.8868</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.8236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>121.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.8247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8276</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>64.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>47.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0953</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8439</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7466</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6376</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4997</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4780</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3229</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>162213</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004190</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516830</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国沪深300ESG基准交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010771</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003015</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010772</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003548</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004191</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>530018</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信深证100指数增强</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>永赢深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>561900</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商沪深300ESG基准交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>96.95</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003579</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001059</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中金绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>67.88</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34780,4 +34781,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>140</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>231</v>
+      </c>
+      <c r="D3" t="n">
+        <v>121.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>282</v>
+      </c>
+      <c r="D4" t="n">
+        <v>154.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>246</v>
+      </c>
+      <c r="D5" t="n">
+        <v>178.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34789,7 +34790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34800,17 +34801,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -34820,14 +34841,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>140</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.55</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>183.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -34836,14 +34879,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>231</v>
-      </c>
-      <c r="D3" t="n">
-        <v>121.16</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -34852,14 +34917,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>282</v>
-      </c>
-      <c r="D4" t="n">
-        <v>154.63</v>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -34868,13 +34955,4369 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7485</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5874</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5808</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519671</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5673</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5522</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4756</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>永赢深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010771</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004190</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010772</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004191</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>115</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>140</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>231</v>
+      </c>
+      <c r="D4" t="n">
+        <v>121.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>282</v>
+      </c>
+      <c r="D5" t="n">
+        <v>154.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>246</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>178.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -39216,7 +39217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39227,17 +39228,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -39247,14 +39268,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>115</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.62</v>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -39263,14 +39306,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>140</v>
-      </c>
-      <c r="D3" t="n">
-        <v>70.55</v>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1837</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -39279,14 +39344,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>231</v>
-      </c>
-      <c r="D4" t="n">
-        <v>121.16</v>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -39295,14 +39382,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>282</v>
-      </c>
-      <c r="D5" t="n">
-        <v>154.63</v>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6384</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -39311,13 +39420,4535 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5424</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3410</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>561990</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004190</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>162213</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004191</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>59.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>永赢深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013174</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银华华证ESG领先指数</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003548</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泰达宏利沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>140</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>231</v>
+      </c>
+      <c r="D5" t="n">
+        <v>121.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>282</v>
+      </c>
+      <c r="D6" t="n">
+        <v>154.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>246</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>178.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -43831,7 +43832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43842,17 +43843,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -43862,14 +43883,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.77</v>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -43878,14 +43921,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>115</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.62</v>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -43894,14 +43959,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>140</v>
-      </c>
-      <c r="D4" t="n">
-        <v>70.55</v>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -43910,14 +43997,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>231</v>
-      </c>
-      <c r="D5" t="n">
-        <v>121.16</v>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -43926,14 +44035,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>282</v>
-      </c>
-      <c r="D6" t="n">
-        <v>154.63</v>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -43942,13 +44073,2649 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>502006</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达国企改革指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012873</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达国企改革指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014172</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014173</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014174</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.109999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>140</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>231</v>
+      </c>
+      <c r="D6" t="n">
+        <v>121.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>282</v>
+      </c>
+      <c r="D7" t="n">
+        <v>154.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>246</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>178.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000725-京东方A.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>8.109999999999999</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>16.77</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
-        <v>36.62</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D5" t="n">
-        <v>70.55</v>
+        <v>36.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="D6" t="n">
-        <v>121.16</v>
+        <v>70.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="D7" t="n">
-        <v>154.63</v>
+        <v>121.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>282</v>
+      </c>
+      <c r="D8" t="n">
+        <v>154.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>246</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>178.33</v>
       </c>
     </row>
@@ -600,6 +617,2720 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159997</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证电子ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>310398</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159916</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>561100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160626</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159910</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515320</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163116</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159732</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏国证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>561310</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159779</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007800</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159769</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012809</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证沪港深科技龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159853</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010531</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万电子行业投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>517270</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>233010</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大摩深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012040</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华中证信息技术指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160646</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华中证沪港深科技龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015676</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014172</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014173</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3349,7 +6080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7963,7 +10694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12389,7 +15120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17765,7 +20496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26589,7 +29320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37326,7 +40057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
